--- a/public/public/excelExamples/cariHareketleri.xlsx
+++ b/public/public/excelExamples/cariHareketleri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cariAdi</t>
   </si>
@@ -39,16 +39,7 @@
     <t>FATURA</t>
   </si>
   <si>
-    <t>test1244</t>
-  </si>
-  <si>
-    <t>TAHSİLAT</t>
-  </si>
-  <si>
-    <t>2019-04-20</t>
-  </si>
-  <si>
-    <t>2019-05-20</t>
+    <t>21/06/2019</t>
   </si>
 </sst>
 </file>
@@ -385,7 +376,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,28 +412,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
